--- a/23 June 18/Object class methods.xlsx
+++ b/23 June 18/Object class methods.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11550" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11550" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Object" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -157,12 +157,72 @@
   <si>
     <t>SOP(str)</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>protected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> Object clone() </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>throws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CloneNotSupportedException
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>java.lang.Cloneable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> interface must be implemented by the class whose object clone we want to create
+Object.clone() is protected, so we have to provide our own clone() and indirectly call Object.clone() from it.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +265,32 @@
       <color rgb="FF00B050"/>
       <name val="FranklinGothic-Book"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF006699"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -341,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -358,14 +444,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1264,19 +1353,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.85546875" customWidth="1"/>
     <col min="2" max="2" width="46.28515625" customWidth="1"/>
+    <col min="3" max="3" width="66.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1284,15 +1375,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24">
+    <row r="2" spans="1:3" ht="110.25" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1300,7 +1394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1308,7 +1402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1316,7 +1410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="24">
+    <row r="6" spans="1:3" ht="24">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1324,7 +1418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="24">
+    <row r="7" spans="1:3" ht="24">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1332,7 +1426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="24">
+    <row r="8" spans="1:3" ht="24">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1340,7 +1434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1348,7 +1442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="36">
+    <row r="10" spans="1:3" ht="36">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1356,12 +1450,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="24">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:3" ht="24" customHeight="1">
+      <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="B12" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1371,7 +1469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -1398,41 +1496,41 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="C4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
